--- a/0_0_Data/2_Processed_Data/1_GDP_series/qoq_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/qoq_rt_GDP_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD138"/>
+  <dimension ref="A1:CE139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,13 +633,16 @@
       <c r="CD1" s="2">
         <v>45800</v>
       </c>
+      <c r="CE1" s="2">
+        <v>45891</v>
+      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:83">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:83">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -886,8 +889,11 @@
       <c r="CD3">
         <v>-0.4379768296128882</v>
       </c>
+      <c r="CE3">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:83">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1134,8 +1140,11 @@
       <c r="CD4">
         <v>-0.18447566340286</v>
       </c>
+      <c r="CE4">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:83">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1382,8 +1391,11 @@
       <c r="CD5">
         <v>1.407449530850149</v>
       </c>
+      <c r="CE5">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:83">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1630,8 +1642,11 @@
       <c r="CD6">
         <v>1.415954016542836</v>
       </c>
+      <c r="CE6">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:83">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -1878,8 +1893,11 @@
       <c r="CD7">
         <v>-0.6082388719933615</v>
       </c>
+      <c r="CE7">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:83">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2126,8 +2144,11 @@
       <c r="CD8">
         <v>-0.2642559109874992</v>
       </c>
+      <c r="CE8">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:83">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2374,8 +2395,11 @@
       <c r="CD9">
         <v>-0.2928461860270447</v>
       </c>
+      <c r="CE9">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:83">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2622,8 +2646,11 @@
       <c r="CD10">
         <v>-0.7832167832167863</v>
       </c>
+      <c r="CE10">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:83">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -2870,8 +2897,11 @@
       <c r="CD11">
         <v>0.04228925852833541</v>
       </c>
+      <c r="CE11">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:83">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3118,8 +3148,11 @@
       <c r="CD12">
         <v>0.5636184303226796</v>
       </c>
+      <c r="CE12">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:83">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3366,8 +3399,11 @@
       <c r="CD13">
         <v>-0.07005744710664336</v>
       </c>
+      <c r="CE13">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:83">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3614,8 +3650,11 @@
       <c r="CD14">
         <v>1.388109927089188</v>
       </c>
+      <c r="CE14">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:83">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -3862,8 +3901,11 @@
       <c r="CD15">
         <v>0.5808325266214932</v>
       </c>
+      <c r="CE15">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:83">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4110,8 +4152,11 @@
       <c r="CD16">
         <v>0.5774783445620812</v>
       </c>
+      <c r="CE16">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:83">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4358,8 +4403,11 @@
       <c r="CD17">
         <v>1.120984278879006</v>
       </c>
+      <c r="CE17">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:83">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4606,8 +4654,11 @@
       <c r="CD18">
         <v>-0.4055698256049712</v>
       </c>
+      <c r="CE18">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:83">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -4854,8 +4905,11 @@
       <c r="CD19">
         <v>0.8144427853943182</v>
       </c>
+      <c r="CE19">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:83">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5102,8 +5156,11 @@
       <c r="CD20">
         <v>0.1750370270634303</v>
       </c>
+      <c r="CE20">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:83">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5350,8 +5407,11 @@
       <c r="CD21">
         <v>0.04032258064516282</v>
       </c>
+      <c r="CE21">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:83">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5598,8 +5658,11 @@
       <c r="CD22">
         <v>-0.6986430202875321</v>
       </c>
+      <c r="CE22">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:83">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -5846,8 +5909,11 @@
       <c r="CD23">
         <v>1.393586794750374</v>
       </c>
+      <c r="CE23">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:83">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6094,8 +6160,11 @@
       <c r="CD24">
         <v>0.346944222044309</v>
       </c>
+      <c r="CE24">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:83">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6342,8 +6411,11 @@
       <c r="CD25">
         <v>0.9042553191489264</v>
       </c>
+      <c r="CE25">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:83">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6590,8 +6662,11 @@
       <c r="CD26">
         <v>-0.4744333157617283</v>
       </c>
+      <c r="CE26">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:83">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -6838,8 +6913,11 @@
       <c r="CD27">
         <v>1.125529661016961</v>
       </c>
+      <c r="CE27">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:83">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7086,8 +7164,11 @@
       <c r="CD28">
         <v>0.3535419667408616</v>
       </c>
+      <c r="CE28">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:83">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7334,8 +7415,11 @@
       <c r="CD29">
         <v>0.7437369519832896</v>
       </c>
+      <c r="CE29">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:83">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7582,8 +7666,11 @@
       <c r="CD30">
         <v>0.9843284548633664</v>
       </c>
+      <c r="CE30">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:83">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -7830,8 +7917,11 @@
       <c r="CD31">
         <v>-0.4617160446325503</v>
       </c>
+      <c r="CE31">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:83">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -8078,8 +8168,11 @@
       <c r="CD32">
         <v>0.4638577502899104</v>
       </c>
+      <c r="CE32">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:83">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8326,8 +8419,11 @@
       <c r="CD33">
         <v>-0.02565089136846995</v>
       </c>
+      <c r="CE33">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:83">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8574,8 +8670,11 @@
       <c r="CD34">
         <v>1.180243745991022</v>
       </c>
+      <c r="CE34">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:83">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -8822,8 +8921,11 @@
       <c r="CD35">
         <v>-0.1267909217700121</v>
       </c>
+      <c r="CE35">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:83">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -9070,8 +9172,11 @@
       <c r="CD36">
         <v>1.345689983496258</v>
       </c>
+      <c r="CE36">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="37" spans="1:82">
+    <row r="37" spans="1:83">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9318,8 +9423,11 @@
       <c r="CD37">
         <v>0.4760115244895346</v>
       </c>
+      <c r="CE37">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="38" spans="1:82">
+    <row r="38" spans="1:83">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9566,8 +9674,11 @@
       <c r="CD38">
         <v>1.583343722727852</v>
       </c>
+      <c r="CE38">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="39" spans="1:82">
+    <row r="39" spans="1:83">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -9814,8 +9925,11 @@
       <c r="CD39">
         <v>0.7731958762886542</v>
       </c>
+      <c r="CE39">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="40" spans="1:82">
+    <row r="40" spans="1:83">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -10062,8 +10176,11 @@
       <c r="CD40">
         <v>0.06089392278650244</v>
       </c>
+      <c r="CE40">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="41" spans="1:82">
+    <row r="41" spans="1:83">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10310,8 +10427,11 @@
       <c r="CD41">
         <v>-0.4259980525803241</v>
       </c>
+      <c r="CE41">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="42" spans="1:82">
+    <row r="42" spans="1:83">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10558,8 +10678,11 @@
       <c r="CD42">
         <v>2.151326243735473</v>
       </c>
+      <c r="CE42">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="43" spans="1:82">
+    <row r="43" spans="1:83">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -10806,8 +10929,11 @@
       <c r="CD43">
         <v>-0.2871843963144608</v>
       </c>
+      <c r="CE43">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="44" spans="1:82">
+    <row r="44" spans="1:83">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -11054,8 +11180,11 @@
       <c r="CD44">
         <v>-0.01200048001920691</v>
       </c>
+      <c r="CE44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:82">
+    <row r="45" spans="1:83">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11302,8 +11431,11 @@
       <c r="CD45">
         <v>-0.300048007681229</v>
       </c>
+      <c r="CE45">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="46" spans="1:82">
+    <row r="46" spans="1:83">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11550,8 +11682,11 @@
       <c r="CD46">
         <v>-0.4213314072468934</v>
       </c>
+      <c r="CE46">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="47" spans="1:82">
+    <row r="47" spans="1:83">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -11798,8 +11933,11 @@
       <c r="CD47">
         <v>0.3505802707930443</v>
       </c>
+      <c r="CE47">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="48" spans="1:82">
+    <row r="48" spans="1:83">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -12046,8 +12184,11 @@
       <c r="CD48">
         <v>0.6866642573183871</v>
       </c>
+      <c r="CE48">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="49" spans="1:82">
+    <row r="49" spans="1:83">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12294,8 +12435,11 @@
       <c r="CD49">
         <v>-0.2632208662359403</v>
       </c>
+      <c r="CE49">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="50" spans="1:82">
+    <row r="50" spans="1:83">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12542,8 +12686,11 @@
       <c r="CD50">
         <v>-1.343570057581579</v>
       </c>
+      <c r="CE50">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="51" spans="1:82">
+    <row r="51" spans="1:83">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -12790,8 +12937,11 @@
       <c r="CD51">
         <v>0.12159533073931</v>
       </c>
+      <c r="CE51">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="52" spans="1:82">
+    <row r="52" spans="1:83">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -13038,8 +13188,11 @@
       <c r="CD52">
         <v>0.9108574204517852</v>
       </c>
+      <c r="CE52">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="53" spans="1:82">
+    <row r="53" spans="1:83">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13286,8 +13439,11 @@
       <c r="CD53">
         <v>0.1203514261643932</v>
       </c>
+      <c r="CE53">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="54" spans="1:82">
+    <row r="54" spans="1:83">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13534,8 +13690,11 @@
       <c r="CD54">
         <v>-0.120206755619659</v>
       </c>
+      <c r="CE54">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="55" spans="1:82">
+    <row r="55" spans="1:83">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -13782,8 +13941,11 @@
       <c r="CD55">
         <v>0.5656517029726789</v>
       </c>
+      <c r="CE55">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="56" spans="1:82">
+    <row r="56" spans="1:83">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -14030,8 +14192,11 @@
       <c r="CD56">
         <v>-0.3231211105792197</v>
       </c>
+      <c r="CE56">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="57" spans="1:82">
+    <row r="57" spans="1:83">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14278,8 +14443,11 @@
       <c r="CD57">
         <v>-0.0480249729859602</v>
       </c>
+      <c r="CE57">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="58" spans="1:82">
+    <row r="58" spans="1:83">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14526,8 +14694,11 @@
       <c r="CD58">
         <v>0.180180180180187</v>
       </c>
+      <c r="CE58">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="59" spans="1:82">
+    <row r="59" spans="1:83">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -14771,8 +14942,11 @@
       <c r="CD59">
         <v>0.5515587529975944</v>
       </c>
+      <c r="CE59">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="60" spans="1:82">
+    <row r="60" spans="1:83">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -15013,8 +15187,11 @@
       <c r="CD60">
         <v>0.8227999046029069</v>
       </c>
+      <c r="CE60">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="61" spans="1:82">
+    <row r="61" spans="1:83">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15252,8 +15429,11 @@
       <c r="CD61">
         <v>0.3784742755765907</v>
       </c>
+      <c r="CE61">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="62" spans="1:82">
+    <row r="62" spans="1:83">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15488,8 +15668,11 @@
       <c r="CD62">
         <v>1.11935901967714</v>
       </c>
+      <c r="CE62">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="63" spans="1:82">
+    <row r="63" spans="1:83">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -15721,8 +15904,11 @@
       <c r="CD63">
         <v>1.701235143323244</v>
       </c>
+      <c r="CE63">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="64" spans="1:82">
+    <row r="64" spans="1:83">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -15951,8 +16137,11 @@
       <c r="CD64">
         <v>0.7791017415215314</v>
       </c>
+      <c r="CE64">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="65" spans="1:82">
+    <row r="65" spans="1:83">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -16178,8 +16367,11 @@
       <c r="CD65">
         <v>1.455206912232834</v>
       </c>
+      <c r="CE65">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="66" spans="1:82">
+    <row r="66" spans="1:83">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16402,8 +16594,11 @@
       <c r="CD66">
         <v>0.1344688480502068</v>
       </c>
+      <c r="CE66">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="67" spans="1:82">
+    <row r="67" spans="1:83">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -16623,8 +16818,11 @@
       <c r="CD67">
         <v>0.6602506714413646</v>
       </c>
+      <c r="CE67">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="68" spans="1:82">
+    <row r="68" spans="1:83">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -16841,8 +17039,11 @@
       <c r="CD68">
         <v>0.5002779321845502</v>
       </c>
+      <c r="CE68">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="69" spans="1:82">
+    <row r="69" spans="1:83">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -17056,8 +17257,11 @@
       <c r="CD69">
         <v>0.7411504424778622</v>
       </c>
+      <c r="CE69">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="70" spans="1:82">
+    <row r="70" spans="1:83">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17268,8 +17472,11 @@
       <c r="CD70">
         <v>0.6039310420555742</v>
       </c>
+      <c r="CE70">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="71" spans="1:82">
+    <row r="71" spans="1:83">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17477,8 +17684,11 @@
       <c r="CD71">
         <v>-0.3601833660772738</v>
       </c>
+      <c r="CE71">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="72" spans="1:82">
+    <row r="72" spans="1:83">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -17683,8 +17893,11 @@
       <c r="CD72">
         <v>-0.5477051155657793</v>
       </c>
+      <c r="CE72">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="73" spans="1:82">
+    <row r="73" spans="1:83">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -17886,8 +18099,11 @@
       <c r="CD73">
         <v>-1.542020046260608</v>
       </c>
+      <c r="CE73">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="74" spans="1:82">
+    <row r="74" spans="1:83">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -18086,8 +18302,11 @@
       <c r="CD74">
         <v>-4.698512137823026</v>
       </c>
+      <c r="CE74">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="75" spans="1:82">
+    <row r="75" spans="1:83">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18283,8 +18502,11 @@
       <c r="CD75">
         <v>0.2699847399929616</v>
       </c>
+      <c r="CE75">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="76" spans="1:82">
+    <row r="76" spans="1:83">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18477,8 +18699,11 @@
       <c r="CD76">
         <v>0.5970498712245436</v>
       </c>
+      <c r="CE76">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="77" spans="1:82">
+    <row r="77" spans="1:83">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -18668,8 +18893,11 @@
       <c r="CD77">
         <v>0.7797044105667258</v>
       </c>
+      <c r="CE77">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="78" spans="1:82">
+    <row r="78" spans="1:83">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -18856,8 +19084,11 @@
       <c r="CD78">
         <v>0.7159353348729844</v>
       </c>
+      <c r="CE78">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="79" spans="1:82">
+    <row r="79" spans="1:83">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -19041,8 +19272,11 @@
       <c r="CD79">
         <v>2.178399449667514</v>
       </c>
+      <c r="CE79">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="80" spans="1:82">
+    <row r="80" spans="1:83">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -19223,8 +19457,11 @@
       <c r="CD80">
         <v>0.9649910233393171</v>
       </c>
+      <c r="CE80">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="81" spans="1:82">
+    <row r="81" spans="1:83">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19402,8 +19639,11 @@
       <c r="CD81">
         <v>0.6557012669481986</v>
       </c>
+      <c r="CE81">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="82" spans="1:82">
+    <row r="82" spans="1:83">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -19578,8 +19818,11 @@
       <c r="CD82">
         <v>1.810754112840897</v>
       </c>
+      <c r="CE82">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="83" spans="1:82">
+    <row r="83" spans="1:83">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -19751,8 +19994,11 @@
       <c r="CD83">
         <v>0.2711202689513068</v>
       </c>
+      <c r="CE83">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="84" spans="1:82">
+    <row r="84" spans="1:83">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -19921,8 +20167,11 @@
       <c r="CD84">
         <v>0.5407743889249406</v>
       </c>
+      <c r="CE84">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="85" spans="1:82">
+    <row r="85" spans="1:83">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -20088,8 +20337,11 @@
       <c r="CD85">
         <v>0</v>
       </c>
+      <c r="CE85">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="86" spans="1:82">
+    <row r="86" spans="1:83">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20252,8 +20504,11 @@
       <c r="CD86">
         <v>0.2151462994836519</v>
       </c>
+      <c r="CE86">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="87" spans="1:82">
+    <row r="87" spans="1:83">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20413,8 +20668,11 @@
       <c r="CD87">
         <v>0.09660798626020117</v>
       </c>
+      <c r="CE87">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="88" spans="1:82">
+    <row r="88" spans="1:83">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -20571,8 +20829,11 @@
       <c r="CD88">
         <v>0.2144772117962497</v>
       </c>
+      <c r="CE88">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="89" spans="1:82">
+    <row r="89" spans="1:83">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -20726,8 +20987,11 @@
       <c r="CD89">
         <v>-0.3317281968967387</v>
       </c>
+      <c r="CE89">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="90" spans="1:82">
+    <row r="90" spans="1:83">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -20878,8 +21142,11 @@
       <c r="CD90">
         <v>-0.5582993343354048</v>
       </c>
+      <c r="CE90">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="91" spans="1:82">
+    <row r="91" spans="1:83">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -21027,8 +21294,11 @@
       <c r="CD91">
         <v>1.209242064348942</v>
       </c>
+      <c r="CE91">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="92" spans="1:82">
+    <row r="92" spans="1:83">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -21173,8 +21443,11 @@
       <c r="CD92">
         <v>0.5013868145935555</v>
       </c>
+      <c r="CE92">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="93" spans="1:82">
+    <row r="93" spans="1:83">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21316,8 +21589,11 @@
       <c r="CD93">
         <v>0.1167604288292107</v>
       </c>
+      <c r="CE93">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="94" spans="1:82">
+    <row r="94" spans="1:83">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21456,8 +21732,11 @@
       <c r="CD94">
         <v>1.049618320610697</v>
       </c>
+      <c r="CE94">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="95" spans="1:82">
+    <row r="95" spans="1:83">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -21593,8 +21872,11 @@
       <c r="CD95">
         <v>0.0314762354422423</v>
       </c>
+      <c r="CE95">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="96" spans="1:82">
+    <row r="96" spans="1:83">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -21727,8 +22009,11 @@
       <c r="CD96">
         <v>0.5139500734214337</v>
       </c>
+      <c r="CE96">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="97" spans="1:82">
+    <row r="97" spans="1:83">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -21858,8 +22143,11 @@
       <c r="CD97">
         <v>0.7408953354899385</v>
       </c>
+      <c r="CE97">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="98" spans="1:82">
+    <row r="98" spans="1:83">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -21986,8 +22274,11 @@
       <c r="CD98">
         <v>-0.2278848145846417</v>
       </c>
+      <c r="CE98">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="99" spans="1:82">
+    <row r="99" spans="1:83">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -22111,8 +22402,11 @@
       <c r="CD99">
         <v>0.6125415282392063</v>
       </c>
+      <c r="CE99">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="100" spans="1:82">
+    <row r="100" spans="1:83">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22233,8 +22527,11 @@
       <c r="CD100">
         <v>0.4643483644618748</v>
       </c>
+      <c r="CE100">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="101" spans="1:82">
+    <row r="101" spans="1:83">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22352,8 +22649,11 @@
       <c r="CD101">
         <v>0.4622021364009889</v>
       </c>
+      <c r="CE101">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="102" spans="1:82">
+    <row r="102" spans="1:83">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -22468,8 +22768,11 @@
       <c r="CD102">
         <v>0.9712708312033562</v>
       </c>
+      <c r="CE102">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="103" spans="1:82">
+    <row r="103" spans="1:83">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -22581,8 +22884,11 @@
       <c r="CD103">
         <v>0.324017820980147</v>
       </c>
+      <c r="CE103">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="104" spans="1:82">
+    <row r="104" spans="1:83">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -22691,8 +22997,11 @@
       <c r="CD104">
         <v>0.3027856277755321</v>
       </c>
+      <c r="CE104">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="105" spans="1:82">
+    <row r="105" spans="1:83">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -22798,8 +23107,11 @@
       <c r="CD105">
         <v>0.4024954719259466</v>
       </c>
+      <c r="CE105">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="106" spans="1:82">
+    <row r="106" spans="1:83">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -22902,8 +23214,11 @@
       <c r="CD106">
         <v>1.192623772299056</v>
       </c>
+      <c r="CE106">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="107" spans="1:82">
+    <row r="107" spans="1:83">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -23003,8 +23318,11 @@
       <c r="CD107">
         <v>0.8715460037634897</v>
       </c>
+      <c r="CE107">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="108" spans="1:82">
+    <row r="108" spans="1:83">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -23101,8 +23419,11 @@
       <c r="CD108">
         <v>0.6971035837015297</v>
       </c>
+      <c r="CE108">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="109" spans="1:82">
+    <row r="109" spans="1:83">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -23196,8 +23517,11 @@
       <c r="CD109">
         <v>0.9555382215288651</v>
       </c>
+      <c r="CE109">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="110" spans="1:82">
+    <row r="110" spans="1:83">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23288,8 +23612,11 @@
       <c r="CD110">
         <v>-0.4829051574270813</v>
       </c>
+      <c r="CE110">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="111" spans="1:82">
+    <row r="111" spans="1:83">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23377,8 +23704,11 @@
       <c r="CD111">
         <v>0.7278726708074534</v>
       </c>
+      <c r="CE111">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="112" spans="1:82">
+    <row r="112" spans="1:83">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -23463,8 +23793,11 @@
       <c r="CD112">
         <v>-0.7226129684940745</v>
       </c>
+      <c r="CE112">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="113" spans="1:82">
+    <row r="113" spans="1:83">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -23546,8 +23879,11 @@
       <c r="CD113">
         <v>0.6308229813664513</v>
       </c>
+      <c r="CE113">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="114" spans="1:82">
+    <row r="114" spans="1:83">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -23626,8 +23962,11 @@
       <c r="CD114">
         <v>0.559359629665347</v>
       </c>
+      <c r="CE114">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="115" spans="1:82">
+    <row r="115" spans="1:83">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -23703,8 +24042,11 @@
       <c r="CD115">
         <v>0.06713340366357283</v>
       </c>
+      <c r="CE115">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="116" spans="1:82">
+    <row r="116" spans="1:83">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -23777,8 +24119,11 @@
       <c r="CD116">
         <v>0.2683534598428226</v>
       </c>
+      <c r="CE116">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="117" spans="1:82">
+    <row r="117" spans="1:83">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -23848,8 +24193,11 @@
       <c r="CD117">
         <v>-0.03823360734085859</v>
       </c>
+      <c r="CE117">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="118" spans="1:82">
+    <row r="118" spans="1:83">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -23916,8 +24264,11 @@
       <c r="CD118">
         <v>-2.19927328361063</v>
       </c>
+      <c r="CE118">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="119" spans="1:82">
+    <row r="119" spans="1:83">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -23981,8 +24332,11 @@
       <c r="CD119">
         <v>-8.897145091904569</v>
       </c>
+      <c r="CE119">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="120" spans="1:82">
+    <row r="120" spans="1:83">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -24043,8 +24397,11 @@
       <c r="CD120">
         <v>8.703584460184588</v>
       </c>
+      <c r="CE120">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="121" spans="1:82">
+    <row r="121" spans="1:83">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -24102,8 +24459,11 @@
       <c r="CD121">
         <v>1.13535393424819</v>
       </c>
+      <c r="CE121">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="122" spans="1:82">
+    <row r="122" spans="1:83">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -24158,8 +24518,11 @@
       <c r="CD122">
         <v>-1.112846544318626</v>
       </c>
+      <c r="CE122">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="123" spans="1:82">
+    <row r="123" spans="1:83">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24211,8 +24574,11 @@
       <c r="CD123">
         <v>2.546890424481736</v>
       </c>
+      <c r="CE123">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="124" spans="1:82">
+    <row r="124" spans="1:83">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24261,8 +24627,11 @@
       <c r="CD124">
         <v>0.03850596842511191</v>
       </c>
+      <c r="CE124">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="125" spans="1:82">
+    <row r="125" spans="1:83">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24308,8 +24677,11 @@
       <c r="CD125">
         <v>0.6158583525789074</v>
       </c>
+      <c r="CE125">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="126" spans="1:82">
+    <row r="126" spans="1:83">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24352,8 +24724,11 @@
       <c r="CD126">
         <v>0.1817138485080315</v>
       </c>
+      <c r="CE126">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="127" spans="1:82">
+    <row r="127" spans="1:83">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -24393,8 +24768,11 @@
       <c r="CD127">
         <v>-0.01909307875894608</v>
       </c>
+      <c r="CE127">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="128" spans="1:82">
+    <row r="128" spans="1:83">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -24431,8 +24809,11 @@
       <c r="CD128">
         <v>0.5919984722619979</v>
       </c>
+      <c r="CE128">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="129" spans="1:82">
+    <row r="129" spans="1:83">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -24466,8 +24847,11 @@
       <c r="CD129">
         <v>-0.5125771238727974</v>
       </c>
+      <c r="CE129">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="130" spans="1:82">
+    <row r="130" spans="1:83">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -24498,8 +24882,11 @@
       <c r="CD130">
         <v>0.1431161148745267</v>
       </c>
+      <c r="CE130">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="131" spans="1:82">
+    <row r="131" spans="1:83">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -24527,8 +24914,11 @@
       <c r="CD131">
         <v>-0.1524390243902407</v>
       </c>
+      <c r="CE131">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="132" spans="1:82">
+    <row r="132" spans="1:83">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -24553,8 +24943,11 @@
       <c r="CD132">
         <v>0.1908396946564913</v>
       </c>
+      <c r="CE132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:82">
+    <row r="133" spans="1:83">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -24576,8 +24969,11 @@
       <c r="CD133">
         <v>-0.371428571428572</v>
       </c>
+      <c r="CE133">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="134" spans="1:82">
+    <row r="134" spans="1:83">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -24596,8 +24992,11 @@
       <c r="CD134">
         <v>0.2389828888251601</v>
       </c>
+      <c r="CE134">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="135" spans="1:82">
+    <row r="135" spans="1:83">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -24613,8 +25012,11 @@
       <c r="CD135">
         <v>-0.295632271600231</v>
       </c>
+      <c r="CE135">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="136" spans="1:82">
+    <row r="136" spans="1:83">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -24627,8 +25029,11 @@
       <c r="CD136">
         <v>0.1052128168340501</v>
       </c>
+      <c r="CE136">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="137" spans="1:82">
+    <row r="137" spans="1:83">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -24638,13 +25043,27 @@
       <c r="CD137">
         <v>-0.2006497229122814</v>
       </c>
+      <c r="CE137">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="138" spans="1:82">
+    <row r="138" spans="1:83">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
       <c r="CD138">
         <v>0.4116802297750048</v>
+      </c>
+      <c r="CE138">
+        <v>0.3062494018566441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:83">
+      <c r="A139" s="2">
+        <v>45793</v>
+      </c>
+      <c r="CE139">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
